--- a/Excels/Custom Credentials.xlsx
+++ b/Excels/Custom Credentials.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" activeCellId="1" sqref="C8 C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +445,8 @@
     <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -617,10 +618,10 @@
     <hyperlink ref="C5" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="B6" r:id="rId7" display="abc123@"/>
-    <hyperlink ref="C6" r:id="rId8"/>
-    <hyperlink ref="A7" r:id="rId9"/>
-    <hyperlink ref="A8" r:id="rId10"/>
-    <hyperlink ref="B8" r:id="rId11"/>
+    <hyperlink ref="A7" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="C6" r:id="rId11" display="abc123@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
